--- a/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED0FD4-C827-431E-AEDC-84DC482B448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD48BCB-8388-413E-92A2-5CC3B44D4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,15 +103,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LANCEMASTER_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANCEMASTER_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_key</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>skill_info_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LANCEMASTER_25</t>
+  </si>
+  <si>
+    <t>스킬 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 lv.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 lv.2</t>
+  </si>
+  <si>
+    <t>적룡포 lv.3</t>
+  </si>
+  <si>
+    <t>적룡포 lv.4</t>
+  </si>
+  <si>
+    <t>적룡포 lv.5</t>
+  </si>
+  <si>
+    <t>적룡포 lv.6</t>
+  </si>
+  <si>
+    <t>적룡포 lv.7</t>
+  </si>
+  <si>
+    <t>적룡포 lv.8</t>
+  </si>
+  <si>
+    <t>적룡포 lv.9</t>
+  </si>
+  <si>
+    <t>적룡포 lv.10</t>
+  </si>
+  <si>
+    <t>적룡포 lv.11</t>
+  </si>
+  <si>
+    <t>적룡포 lv.12</t>
+  </si>
+  <si>
+    <t>적룡포 lv.13</t>
+  </si>
+  <si>
+    <t>적룡포 lv.14</t>
+  </si>
+  <si>
+    <t>청룡진 lv.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진 lv.2</t>
+  </si>
+  <si>
+    <t>청룡진 lv.3</t>
+  </si>
+  <si>
+    <t>청룡진 lv.4</t>
+  </si>
+  <si>
+    <t>청룡진 lv.5</t>
+  </si>
+  <si>
+    <t>청룡진 lv.6</t>
+  </si>
+  <si>
+    <t>청룡진 lv.7</t>
+  </si>
+  <si>
+    <t>청룡진 lv.8</t>
+  </si>
+  <si>
+    <t>청룡진 lv.9</t>
+  </si>
+  <si>
+    <t>청룡진 lv.10</t>
+  </si>
+  <si>
+    <t>청룡진 lv.11</t>
+  </si>
+  <si>
+    <t>청룡진 lv.12</t>
+  </si>
+  <si>
+    <t>청룡진 lv.13</t>
+  </si>
+  <si>
+    <t>청룡진 lv.14</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg_1,dmg_2,dmg_3,dmg_4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg_1,dmg_2,dmg_3,dmg_4,dmg_5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2785,4453,2785,5571]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5315,10633,6910,6377]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과의 레벨 별 데이터 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과의 레벨 별 데이터 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Data Per Level Table Schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 레벨 별 수치를 저장하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_info_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,7 +275,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>스킬 정보 key</t>
+      <t xml:space="preserve">스킬 정보 key </t>
     </r>
     <r>
       <rPr>
@@ -136,166 +286,146 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Skill_Info_Table.xlsx 의 skill_info_key)</t>
+      <t>(Skill_Info_table의 PK)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill Data Per Level Table Schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 레벨 별 데이터를 저장하는 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 레벨 별 데이터 의 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data_key</t>
-  </si>
-  <si>
-    <t>data_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 레벨에 따라 변화하는 데이터 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 레벨에 따라 변화하는 데이터 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>skill_info_key</t>
-  </si>
-  <si>
-    <t>skill_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡포 lv.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡포 lv.2</t>
-  </si>
-  <si>
-    <t>적룡포 lv.3</t>
-  </si>
-  <si>
-    <t>적룡포 lv.4</t>
-  </si>
-  <si>
-    <t>적룡포 lv.5</t>
-  </si>
-  <si>
-    <t>적룡포 lv.6</t>
-  </si>
-  <si>
-    <t>적룡포 lv.7</t>
-  </si>
-  <si>
-    <t>적룡포 lv.8</t>
-  </si>
-  <si>
-    <t>적룡포 lv.9</t>
-  </si>
-  <si>
-    <t>적룡포 lv.10</t>
-  </si>
-  <si>
-    <t>적룡포 lv.11</t>
-  </si>
-  <si>
-    <t>적룡포 lv.12</t>
-  </si>
-  <si>
-    <t>적룡포 lv.13</t>
-  </si>
-  <si>
-    <t>적룡포 lv.14</t>
-  </si>
-  <si>
-    <t>청룡진 lv.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진 lv.2</t>
-  </si>
-  <si>
-    <t>청룡진 lv.3</t>
-  </si>
-  <si>
-    <t>청룡진 lv.4</t>
-  </si>
-  <si>
-    <t>청룡진 lv.5</t>
-  </si>
-  <si>
-    <t>청룡진 lv.6</t>
-  </si>
-  <si>
-    <t>청룡진 lv.7</t>
-  </si>
-  <si>
-    <t>청룡진 lv.8</t>
-  </si>
-  <si>
-    <t>청룡진 lv.9</t>
-  </si>
-  <si>
-    <t>청룡진 lv.10</t>
-  </si>
-  <si>
-    <t>청룡진 lv.11</t>
-  </si>
-  <si>
-    <t>청룡진 lv.12</t>
-  </si>
-  <si>
-    <t>청룡진 lv.13</t>
-  </si>
-  <si>
-    <t>청룡진 lv.14</t>
-  </si>
-  <si>
-    <t>[mana_cost,base_dmg]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[mana_cost,base_dmg,cri_rate]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100,727,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 레벨 별 수치 테이블의 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 별 소모 자원 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg_1,cri_rate]</t>
+  </si>
+  <si>
+    <t>[dmg_1,dmg_2]</t>
+  </si>
+  <si>
+    <t>[727,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1285,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1641,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1925,8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2151,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2329,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2483,14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2626,16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2733,18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2839,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2840,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2841,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2842,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[577,1153]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1019,2038]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1301,2601]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1524,3052]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1706,3410]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1846,3691]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1969,3939]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2082,4163]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2167,4333]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2251,4501]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2252,4503]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2253,4504]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2253,4505]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2254,4506]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dmg_1,cri_rate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,15 +539,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,14 +583,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -706,103 +823,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF404040"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF404040"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,15 +926,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,23 +950,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q12"/>
+  <dimension ref="B1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1281,9 +1296,9 @@
     <col min="1" max="1" width="3.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.19921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="4.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="70.19921875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="47.8984375" style="32" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" style="8" customWidth="1"/>
     <col min="8" max="14" width="8.69921875" style="10" customWidth="1"/>
     <col min="15" max="17" width="8.69921875" style="10"/>
@@ -1292,13 +1307,13 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36" t="s">
-        <v>21</v>
+      <c r="C2" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -1311,7 +1326,7 @@
       <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1340,7 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1334,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="17">
-        <f t="shared" ref="C5:C9" si="0">ROW(C5)-4</f>
+        <f t="shared" ref="C5:C10" si="0">ROW(C5)-4</f>
         <v>1</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -1343,8 +1358,8 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>22</v>
+      <c r="F5" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -1356,13 +1371,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>19</v>
+      <c r="F6" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="H6" s="24"/>
     </row>
@@ -1373,30 +1388,32 @@
         <v>3</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>34</v>
+      <c r="F7" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="20"/>
       <c r="C8" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>25</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C9" s="21">
@@ -1404,32 +1421,35 @@
         <v>5</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="42"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="39"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1442,10 +1462,55 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="36"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1459,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1470,514 +1535,609 @@
     <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="4"/>
+    <col min="4" max="4" width="4.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
+      <c r="E2" s="6">
+        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="6">
+        <v>136</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="43">
-        <v>100</v>
-      </c>
-      <c r="K4" s="43">
-        <v>727</v>
-      </c>
-      <c r="L4" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="6">
+        <v>165</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="45">
-        <v>136</v>
-      </c>
-      <c r="K5" s="45">
-        <v>1285</v>
-      </c>
-      <c r="L5" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="6">
+        <v>199</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="45">
-        <v>165</v>
-      </c>
-      <c r="K6" s="45">
-        <v>1641</v>
-      </c>
-      <c r="L6" s="46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="6">
+        <v>254</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="45">
-        <v>199</v>
-      </c>
-      <c r="K7" s="45">
-        <v>1925</v>
-      </c>
-      <c r="L7" s="46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="6">
+        <v>293</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="45">
-        <v>254</v>
-      </c>
-      <c r="K8" s="45">
-        <v>2151</v>
-      </c>
-      <c r="L8" s="46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="6">
+        <v>361</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="45">
-        <v>293</v>
-      </c>
-      <c r="K9" s="45">
-        <v>2329</v>
-      </c>
-      <c r="L9" s="46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="6">
+        <v>386</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="45">
-        <v>361</v>
-      </c>
-      <c r="K10" s="45">
-        <v>2483</v>
-      </c>
-      <c r="L10" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="6">
+        <v>463</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="45">
-        <v>386</v>
-      </c>
-      <c r="K11" s="45">
-        <v>2626</v>
-      </c>
-      <c r="L11" s="46">
+      <c r="E11" s="6">
+        <v>518</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
       </c>
-      <c r="J12" s="45">
-        <v>463</v>
-      </c>
-      <c r="K12" s="45">
-        <v>2733</v>
-      </c>
-      <c r="L12" s="46">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="6">
+        <v>518</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
       </c>
-      <c r="J13" s="45">
+      <c r="E13" s="6">
         <v>518</v>
       </c>
-      <c r="K13" s="45">
-        <v>2839</v>
-      </c>
-      <c r="L13" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
       </c>
-      <c r="J14" s="45">
+      <c r="E14" s="6">
         <v>518</v>
       </c>
-      <c r="K14" s="45">
-        <v>2840</v>
-      </c>
-      <c r="L14" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6">
         <v>14</v>
       </c>
-      <c r="J15" s="45">
+      <c r="E15" s="6">
         <v>518</v>
       </c>
-      <c r="K15" s="45">
-        <v>2841</v>
-      </c>
-      <c r="L15" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="45">
-        <v>518</v>
-      </c>
-      <c r="K16" s="45">
-        <v>2842</v>
-      </c>
-      <c r="L16" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="47">
-        <v>518</v>
-      </c>
-      <c r="K17" s="47">
-        <v>2842</v>
-      </c>
-      <c r="L17" s="48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="6">
+        <v>88</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="6">
+        <v>119</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="6">
+        <v>144</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="6">
+        <v>174</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="6">
+        <v>223</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="6">
+        <v>257</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="6">
+        <v>318</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="6">
+        <v>340</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="6">
+        <v>407</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="6">
+        <v>456</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="6">
+        <v>456</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="6">
+        <v>456</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="6">
+        <v>456</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="6">
+        <v>456</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -1987,8 +2147,17 @@
       <c r="D31" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -1997,6 +2166,15 @@
       </c>
       <c r="D32" s="6">
         <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">

--- a/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD48BCB-8388-413E-92A2-5CC3B44D4239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A36190-8BF3-416C-9FC8-A17E43D5663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,23 +107,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_key</t>
-  </si>
-  <si>
     <t>data_value</t>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>skill_info_key</t>
   </si>
   <si>
@@ -226,30 +208,6 @@
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[dmg_1,dmg_2,dmg_3,dmg_4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[dmg_1,dmg_2,dmg_3,dmg_4,dmg_5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2785,4453,2785,5571]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5315,10633,6910,6377]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과의 레벨 별 데이터 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과의 레벨 별 데이터 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,141 +249,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 레벨 별 수치 테이블의 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨 별 소모 자원 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[dmg_1,cri_rate]</t>
-  </si>
-  <si>
-    <t>[dmg_1,dmg_2]</t>
-  </si>
-  <si>
-    <t>[727,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1285,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1641,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1925,8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2151,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2329,12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2483,14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2626,16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2733,18]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2839,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2840,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2841,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2842,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[577,1153]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1019,2038]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1301,2601]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1524,3052]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1706,3410]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1846,3691]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1969,3939]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2082,4163]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2167,4333]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2251,4501]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2252,4503]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2253,4504]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2253,4505]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2254,4506]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[dmg_1,cri_rate]</t>
+    <t>(skill_info_key, level, data_key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">스킬 레벨 별 수치 테이블의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(스킬 정보 key, 스킬 레벨, 매개변수의 복합키)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 별 매개변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 별 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>data_param</t>
+  </si>
+  <si>
+    <t>mana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cri_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg_2</t>
+  </si>
+  <si>
+    <t>dmg_3</t>
+  </si>
+  <si>
+    <t>dmg_4</t>
+  </si>
+  <si>
+    <t>//comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:Q26"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1296,9 +1213,9 @@
     <col min="1" max="1" width="3.19921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.19921875" style="8" customWidth="1"/>
     <col min="3" max="3" width="4.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.796875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="47.8984375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="61.09765625" style="32" customWidth="1"/>
     <col min="7" max="7" width="12.19921875" style="8" customWidth="1"/>
     <col min="8" max="14" width="8.69921875" style="10" customWidth="1"/>
     <col min="15" max="17" width="8.69921875" style="10"/>
@@ -1308,12 +1225,12 @@
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="42" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="44"/>
       <c r="F2" s="33" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -1346,38 +1263,38 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="17">
-        <f t="shared" ref="C5:C10" si="0">ROW(C5)-4</f>
-        <v>1</v>
+        <f>ROW(C5)-5</f>
+        <v>0</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" ref="C6:C9" si="0">ROW(C6)-5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="37" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H6" s="24"/>
     </row>
@@ -1385,71 +1302,66 @@
       <c r="B7" s="20"/>
       <c r="C7" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="20"/>
       <c r="C8" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="25"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C9" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C10" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="39"/>
+    <row r="10" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="39"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1462,22 +1374,13 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="33"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F16" s="41"/>
@@ -1508,9 +1411,6 @@
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F25" s="41"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1524,694 +1424,1506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
-  <dimension ref="A1:H42"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="4"/>
+    <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6">
+        <v>361</v>
+      </c>
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="6">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6">
+        <v>12</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6">
+        <v>13</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6">
+        <v>14</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="6">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <v>136</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
-        <v>165</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="D51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="6">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
-        <v>199</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>254</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="6">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="6">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
-        <v>293</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="7"/>
+      <c r="B62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
-        <v>361</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="D63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="7"/>
+      <c r="B64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="6">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="7"/>
+      <c r="B65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
-        <v>386</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="D66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="7"/>
+      <c r="B67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="6">
+        <v>8</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="7"/>
+      <c r="B68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="6">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="6">
-        <v>463</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="D69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="6">
+        <v>9</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="7"/>
+      <c r="B71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="6">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
-        <v>518</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="6">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="7"/>
+      <c r="B74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="6">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="6">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="6">
-        <v>518</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="D75" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="7"/>
+      <c r="B76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="6">
+        <v>11</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="6">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="6">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
-        <v>518</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="D78" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="7"/>
+      <c r="B79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="6">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="7"/>
+      <c r="B80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="6">
+        <v>12</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="6">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="6">
-        <v>518</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="D81" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="7"/>
+      <c r="B82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="6">
+        <v>13</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="7"/>
+      <c r="B83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="6">
+        <v>13</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="6">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="6">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
-        <v>518</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="D84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="7"/>
+      <c r="B85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="6">
+        <v>14</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="6">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="7"/>
+      <c r="B86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="6">
+        <v>14</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="6">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6">
-        <v>88</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>119</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>144</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4</v>
-      </c>
-      <c r="E20" s="6">
-        <v>174</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6">
-        <v>223</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6">
-        <v>257</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6">
-        <v>318</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6">
-        <v>340</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6">
-        <v>407</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6">
-        <v>456</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6">
-        <v>11</v>
-      </c>
-      <c r="E27" s="6">
-        <v>456</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="D87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="6">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="6">
+        <v>10633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="6">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="6">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="6">
-        <v>456</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="6">
-        <v>13</v>
-      </c>
-      <c r="E29" s="6">
-        <v>456</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="B91" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="6">
-        <v>456</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="6">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="6">
+      <c r="C92" s="6">
         <v>1</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="D92" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="6">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="6">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
+      <c r="D93" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="6">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
+++ b/로스트아크/데이터테이블/Skill_Data_Per_Level_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A36190-8BF3-416C-9FC8-A17E43D5663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360977B-A5DB-4C4C-A834-DD66B45C45EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="86">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,52 @@
   </si>
   <si>
     <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 lv.1</t>
+  </si>
+  <si>
+    <t>이연격 lv.2</t>
+  </si>
+  <si>
+    <t>이연격 lv.3</t>
+  </si>
+  <si>
+    <t>이연격 lv.4</t>
+  </si>
+  <si>
+    <t>이연격 lv.5</t>
+  </si>
+  <si>
+    <t>이연격 lv.6</t>
+  </si>
+  <si>
+    <t>이연격 lv.7</t>
+  </si>
+  <si>
+    <t>이연격 lv.8</t>
+  </si>
+  <si>
+    <t>이연격 lv.9</t>
+  </si>
+  <si>
+    <t>이연격 lv.10</t>
+  </si>
+  <si>
+    <t>이연격 lv.11</t>
+  </si>
+  <si>
+    <t>이연격 lv.12</t>
+  </si>
+  <si>
+    <t>이연격 lv.13</t>
+  </si>
+  <si>
+    <t>이연격 lv.14</t>
+  </si>
+  <si>
+    <t>LANCEMASTER_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,10 +1471,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1460,10 +1506,10 @@
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -1472,13 +1518,13 @@
         <v>63</v>
       </c>
       <c r="E2" s="6">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1487,30 +1533,30 @@
         <v>64</v>
       </c>
       <c r="E3" s="6">
-        <v>727</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="6">
-        <v>2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -1519,13 +1565,13 @@
         <v>63</v>
       </c>
       <c r="E5" s="6">
-        <v>136</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -1534,30 +1580,30 @@
         <v>64</v>
       </c>
       <c r="E6" s="6">
-        <v>1285</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6">
-        <v>4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -1566,13 +1612,13 @@
         <v>63</v>
       </c>
       <c r="E8" s="6">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
@@ -1581,30 +1627,30 @@
         <v>64</v>
       </c>
       <c r="E9" s="6">
-        <v>1641</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="6">
-        <v>6</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -1613,13 +1659,13 @@
         <v>63</v>
       </c>
       <c r="E11" s="6">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C12" s="6">
         <v>4</v>
@@ -1628,30 +1674,30 @@
         <v>64</v>
       </c>
       <c r="E12" s="6">
-        <v>1925</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6">
-        <v>8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6">
         <v>5</v>
@@ -1660,13 +1706,13 @@
         <v>63</v>
       </c>
       <c r="E14" s="6">
-        <v>254</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -1675,30 +1721,30 @@
         <v>64</v>
       </c>
       <c r="E15" s="6">
-        <v>2151</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6">
         <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6">
         <v>6</v>
@@ -1707,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="E17" s="6">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6">
         <v>6</v>
@@ -1722,30 +1768,30 @@
         <v>64</v>
       </c>
       <c r="E18" s="6">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C20" s="6">
         <v>7</v>
@@ -1754,14 +1800,13 @@
         <v>63</v>
       </c>
       <c r="E20" s="6">
-        <v>361</v>
-      </c>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6">
         <v>7</v>
@@ -1770,30 +1815,30 @@
         <v>64</v>
       </c>
       <c r="E21" s="6">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C23" s="6">
         <v>8</v>
@@ -1802,13 +1847,13 @@
         <v>63</v>
       </c>
       <c r="E23" s="6">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C24" s="6">
         <v>8</v>
@@ -1817,30 +1862,30 @@
         <v>64</v>
       </c>
       <c r="E24" s="6">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C25" s="6">
         <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6">
         <v>9</v>
@@ -1849,13 +1894,13 @@
         <v>63</v>
       </c>
       <c r="E26" s="6">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6">
         <v>9</v>
@@ -1864,30 +1909,30 @@
         <v>64</v>
       </c>
       <c r="E27" s="6">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6">
         <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
@@ -1896,13 +1941,13 @@
         <v>63</v>
       </c>
       <c r="E29" s="6">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C30" s="6">
         <v>10</v>
@@ -1911,30 +1956,30 @@
         <v>64</v>
       </c>
       <c r="E30" s="6">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C32" s="6">
         <v>11</v>
@@ -1943,13 +1988,13 @@
         <v>63</v>
       </c>
       <c r="E32" s="6">
-        <v>518</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6">
         <v>11</v>
@@ -1958,30 +2003,30 @@
         <v>64</v>
       </c>
       <c r="E33" s="6">
-        <v>2840</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C34" s="6">
         <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" s="6">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6">
         <v>12</v>
@@ -1990,13 +2035,13 @@
         <v>63</v>
       </c>
       <c r="E35" s="6">
-        <v>518</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C36" s="6">
         <v>12</v>
@@ -2005,30 +2050,30 @@
         <v>64</v>
       </c>
       <c r="E36" s="6">
-        <v>2841</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C37" s="6">
         <v>12</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="6">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6">
         <v>13</v>
@@ -2037,13 +2082,13 @@
         <v>63</v>
       </c>
       <c r="E38" s="6">
-        <v>518</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C39" s="6">
         <v>13</v>
@@ -2052,30 +2097,30 @@
         <v>64</v>
       </c>
       <c r="E39" s="6">
-        <v>2842</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6">
         <v>13</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" s="6">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C41" s="6">
         <v>14</v>
@@ -2084,13 +2129,13 @@
         <v>63</v>
       </c>
       <c r="E41" s="6">
-        <v>518</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6">
         <v>14</v>
@@ -2099,831 +2144,1490 @@
         <v>64</v>
       </c>
       <c r="E42" s="6">
-        <v>2842</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6">
         <v>14</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" s="6">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="6">
-        <v>88</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6">
-        <v>577</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B47" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E47" s="6">
-        <v>1153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A48" s="7"/>
       <c r="B48" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="6">
         <v>2</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E48" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49" s="6">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="B50" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E50" s="6">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7"/>
       <c r="B51" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6">
         <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E51" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="6">
         <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" s="6">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="B53" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E53" s="6">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
       <c r="B54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="6">
         <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E54" s="6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="6">
         <v>4</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55" s="6">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="B56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E56" s="6">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="7"/>
       <c r="B57" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="6">
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57" s="6">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="6">
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58" s="6">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="B59" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E59" s="6">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
       <c r="B60" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="6">
         <v>6</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E60" s="6">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="6">
         <v>6</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" s="6">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="B62" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E62" s="6">
-        <v>3691</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="7"/>
       <c r="B63" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="6">
         <v>7</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E63" s="6">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="6">
         <v>7</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" s="6">
-        <v>1969</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="7"/>
+      <c r="A65" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="B65" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E65" s="6">
-        <v>3939</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A66" s="7"/>
       <c r="B66" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="6">
         <v>8</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E66" s="6">
-        <v>340</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="6">
         <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" s="6">
-        <v>2082</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="7"/>
+      <c r="A68" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B68" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E68" s="6">
-        <v>4163</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A69" s="7"/>
       <c r="B69" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="6">
         <v>9</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E69" s="6">
-        <v>407</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" s="6">
         <v>9</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E70" s="6">
-        <v>2167</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
+      <c r="A71" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="B71" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E71" s="6">
-        <v>4333</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A72" s="7"/>
       <c r="B72" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="6">
         <v>10</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E72" s="6">
-        <v>456</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="6">
         <v>10</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73" s="6">
-        <v>2251</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
+      <c r="A74" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="B74" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E74" s="6">
-        <v>4501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A75" s="7"/>
       <c r="B75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="6">
         <v>11</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E75" s="6">
-        <v>456</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="6">
         <v>11</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E76" s="6">
-        <v>2252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
+      <c r="A77" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E77" s="6">
-        <v>4503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A78" s="7"/>
       <c r="B78" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="6">
         <v>12</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E78" s="6">
-        <v>456</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" s="6">
         <v>12</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E79" s="6">
-        <v>2253</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="7"/>
+      <c r="A80" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B80" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E80" s="6">
-        <v>4504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="A81" s="7"/>
       <c r="B81" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="6">
         <v>13</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E81" s="6">
-        <v>456</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="6">
         <v>13</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E82" s="6">
-        <v>2253</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="7"/>
+      <c r="A83" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B83" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E83" s="6">
-        <v>4505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="A84" s="7"/>
       <c r="B84" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="6">
         <v>14</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E84" s="6">
-        <v>456</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" s="6">
         <v>14</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E85" s="6">
-        <v>2254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
+      <c r="A86" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="B86" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="6">
-        <v>14</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="6">
-        <v>4506</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
-        <v>11</v>
+      <c r="A87" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C87" s="6">
         <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E87" s="6">
-        <v>5315</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="5"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C88" s="6">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E88" s="6">
-        <v>10633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="5"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="6">
+        <v>3</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="7"/>
+      <c r="B94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="6">
+        <v>3</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="6">
+        <v>3</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="6">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="6">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="7"/>
+      <c r="B97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="6">
+        <v>4</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="7"/>
+      <c r="B98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="6">
+        <v>4</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="6">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="6">
+        <v>5</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7"/>
+      <c r="B100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="6">
+        <v>5</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="7"/>
+      <c r="B101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="6">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="6">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="6">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="7"/>
+      <c r="B103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="6">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="7"/>
+      <c r="B104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="6">
+        <v>6</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="6">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="6">
+        <v>7</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="7"/>
+      <c r="B106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="6">
+        <v>7</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="7"/>
+      <c r="B107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="6">
+        <v>7</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="6">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="6">
+        <v>8</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="7"/>
+      <c r="B109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="6">
+        <v>8</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="6">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="7"/>
+      <c r="B110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="6">
+        <v>8</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="6">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="6">
+        <v>9</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="7"/>
+      <c r="B112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="6">
+        <v>9</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="7"/>
+      <c r="B113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="6">
+        <v>9</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="6">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="6">
+        <v>10</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="7"/>
+      <c r="B115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="6">
+        <v>10</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="7"/>
+      <c r="B116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="6">
+        <v>10</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="6">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="6">
+        <v>11</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="7"/>
+      <c r="B118" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="6">
+        <v>11</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="7"/>
+      <c r="B119" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="6">
+        <v>11</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="6">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="6">
+        <v>12</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="7"/>
+      <c r="B121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="6">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="7"/>
+      <c r="B122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="6">
+        <v>12</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E122" s="6">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="6">
+        <v>13</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="7"/>
+      <c r="B124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="6">
+        <v>13</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="6">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="7"/>
+      <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="6">
+        <v>13</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" s="6">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="6">
+        <v>14</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="7"/>
+      <c r="B127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="6">
+        <v>14</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="6">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="7"/>
+      <c r="B128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="6">
+        <v>14</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" s="6">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="6">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="6">
+        <v>10633</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="5"/>
+      <c r="B131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E131" s="6">
         <v>6910</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6" t="s">
+    <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="5"/>
+      <c r="B132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C132" s="6">
         <v>1</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D132" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E132" s="6">
         <v>6377</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="5" t="s">
+    <row r="133" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C133" s="6">
         <v>1</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E91" s="6">
+      <c r="D133" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="6">
         <v>2785</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="4"/>
-      <c r="B92" s="6" t="s">
+    <row r="134" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C134" s="6">
         <v>1</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E134" s="6">
         <v>4453</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="4"/>
-      <c r="B93" s="6" t="s">
+    <row r="135" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C135" s="6">
         <v>1</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D135" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E135" s="6">
         <v>2785</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="4"/>
-      <c r="B94" s="6" t="s">
+    <row r="136" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C136" s="6">
         <v>1</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E136" s="6">
         <v>5571</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="5"/>
-    </row>
-    <row r="99" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="5"/>
-    </row>
-    <row r="100" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="5"/>
+    <row r="137" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
